--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/PhD/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8E2547AE-ED3A-4884-AB4F-0021BF307D2B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34C54F0B-E5E1-46E3-8D0C-B713DB407F0A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,11 +147,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -518,220 +515,159 @@
     <col min="8" max="8" width="13.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.48219269031021461</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.70036204417308889</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.46903253898907249</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0.69161342802126768</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.32007425686112378</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.84068757026960272</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.51638633891410191</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.41127684199796788</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.90998784136034039</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.60299341412143614</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.21425422956179641</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.32941324072303169</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.21999080737203969</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.9474892800161262</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.71183300822429008</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.27208883310843418</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.95844285811222907</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.73456342997093671</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.55535669716138969</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.71971948089671045</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.58519845802667991</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>8.1798868157724636E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.49677807227485832</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.58700187647039159</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.67202386657179292</v>
       </c>
     </row>

--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34C54F0B-E5E1-46E3-8D0C-B713DB407F0A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80B16531-F0FC-4A46-A027-087A9505E983}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,51 +31,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>SubjectID1</t>
-  </si>
-  <si>
-    <t>label1</t>
-  </si>
-  <si>
-    <t>notes1</t>
-  </si>
-  <si>
-    <t>SubjectID2</t>
-  </si>
-  <si>
-    <t>label2</t>
-  </si>
-  <si>
-    <t>notes2</t>
-  </si>
-  <si>
-    <t>SubjectID3</t>
-  </si>
-  <si>
-    <t>label3</t>
-  </si>
-  <si>
-    <t>notes3</t>
-  </si>
-  <si>
-    <t>SubjectID4</t>
-  </si>
-  <si>
-    <t>label4</t>
-  </si>
-  <si>
-    <t>notes4</t>
-  </si>
-  <si>
-    <t>SubjectID5</t>
-  </si>
-  <si>
-    <t>label5</t>
-  </si>
-  <si>
-    <t>notes5</t>
-  </si>
-  <si>
     <t>brain region 1</t>
   </si>
   <si>
@@ -89,13 +44,58 @@
   </si>
   <si>
     <t>brain region 5</t>
+  </si>
+  <si>
+    <t>SubjectID6</t>
+  </si>
+  <si>
+    <t>SubjectID7</t>
+  </si>
+  <si>
+    <t>SubjectID8</t>
+  </si>
+  <si>
+    <t>SubjectID9</t>
+  </si>
+  <si>
+    <t>SubjectID10</t>
+  </si>
+  <si>
+    <t>label6</t>
+  </si>
+  <si>
+    <t>label7</t>
+  </si>
+  <si>
+    <t>notes6</t>
+  </si>
+  <si>
+    <t>notes7</t>
+  </si>
+  <si>
+    <t>notes8</t>
+  </si>
+  <si>
+    <t>label8</t>
+  </si>
+  <si>
+    <t>label9</t>
+  </si>
+  <si>
+    <t>notes9</t>
+  </si>
+  <si>
+    <t>notes10</t>
+  </si>
+  <si>
+    <t>label10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -501,14 +507,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.3125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11.9453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.20703125" customWidth="1"/>
     <col min="6" max="6" width="14.62890625" customWidth="1"/>
     <col min="7" max="7" width="15.7890625" customWidth="1"/>
@@ -526,30 +532,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>0.48219269031021461</v>
@@ -569,13 +575,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>0.84068757026960272</v>
@@ -595,13 +601,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>0.21425422956179641</v>
@@ -621,13 +627,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>0.27208883310843418</v>
@@ -647,13 +653,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>0.58519845802667991</v>
@@ -672,6 +678,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80B16531-F0FC-4A46-A027-087A9505E983}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F22BFD0F-5F87-4E3B-9704-9F276E776C6B}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>label10</t>
+  </si>
+  <si>
+    <t>GroupName1</t>
+  </si>
+  <si>
+    <t>TestGroup1</t>
+  </si>
+  <si>
+    <t>notes1</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -149,22 +158,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -522,158 +558,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
+      <c r="A1" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.48219269031021461</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.70036204417308889</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.46903253898907249</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.69161342802126768</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.32007425686112378</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.48219269031021461</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.70036204417308889</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.46903253898907249</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.69161342802126768</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.32007425686112378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D6" s="5">
         <v>0.84068757026960272</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E6" s="5">
         <v>0.51638633891410191</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F6" s="5">
         <v>0.41127684199796788</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G6" s="5">
         <v>0.90998784136034039</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H6" s="5">
         <v>0.60299341412143614</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D7" s="5">
         <v>0.21425422956179641</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E7" s="5">
         <v>0.32941324072303169</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F7" s="5">
         <v>0.21999080737203969</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G7" s="5">
         <v>0.9474892800161262</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H7" s="5">
         <v>0.71183300822429008</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="5">
         <v>0.27208883310843418</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E8" s="5">
         <v>0.95844285811222907</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F8" s="5">
         <v>0.73456342997093671</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G8" s="5">
         <v>0.55535669716138969</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H8" s="5">
         <v>0.71971948089671045</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="5">
         <v>0.58519845802667991</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E9" s="5">
         <v>8.1798868157724636E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F9" s="5">
         <v>0.49677807227485832</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G9" s="5">
         <v>0.58700187647039159</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H9" s="5">
         <v>0.67202386657179292</v>
       </c>
     </row>

--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F22BFD0F-5F87-4E3B-9704-9F276E776C6B}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_78A7DEDE8F79A8B36A3704F0FB5CC233F0A087C9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB796FA7-B8DC-41A3-852F-4027E65CB022}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="366" yWindow="366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,13 +91,13 @@
     <t>label10</t>
   </si>
   <si>
-    <t>GroupName1</t>
-  </si>
-  <si>
-    <t>TestGroup1</t>
-  </si>
-  <si>
-    <t>notes1</t>
+    <t>GroupName2</t>
+  </si>
+  <si>
+    <t>TestGroup2</t>
+  </si>
+  <si>
+    <t>notes2</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
